--- a/spreadsheet/macrofree/iot_hub_checklist.en.xlsx
+++ b/spreadsheet/macrofree/iot_hub_checklist.en.xlsx
@@ -1086,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/iot-hub/iot-hub-ha-dr#availability-zones</t>
+          <t>https://learn.microsoft.com/azure/iot-hub/iot-hub-ha-dr#availability-zones</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1132,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/iot-hub/iot-hub-ha-dr#microsoft-initiated-failover</t>
+          <t>https://learn.microsoft.com/azure/iot-hub/iot-hub-ha-dr#microsoft-initiated-failover</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1178,7 +1178,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/iot-hub/iot-hub-ha-dr#cross-region-dr</t>
+          <t>https://learn.microsoft.com/azure/iot-hub/iot-hub-ha-dr#cross-region-dr</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1224,7 +1224,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/iot-hub/iot-hub-ha-dr#microsoft-initiated-failover</t>
+          <t>https://learn.microsoft.com/azure/iot-hub/iot-hub-ha-dr#microsoft-initiated-failover</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1270,7 +1270,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/iot-hub/iot-hub-ha-dr#failback</t>
+          <t>https://learn.microsoft.com/azure/iot-hub/iot-hub-ha-dr#failback</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
